--- a/count_支付宝.xlsx
+++ b/count_支付宝.xlsx
@@ -1410,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1575,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1597,7 +1597,7 @@
         <v>52</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1663,7 +1663,7 @@
         <v>58</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1762,7 +1762,7 @@
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1839,7 +1839,7 @@
         <v>74</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1872,7 +1872,7 @@
         <v>77</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1894,7 +1894,7 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1916,7 +1916,7 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1927,7 +1927,7 @@
         <v>82</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1938,7 +1938,7 @@
         <v>83</v>
       </c>
       <c r="C83">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1949,7 +1949,7 @@
         <v>84</v>
       </c>
       <c r="C84">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1960,7 +1960,7 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1971,7 +1971,7 @@
         <v>86</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1982,7 +1982,7 @@
         <v>87</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1993,7 +1993,7 @@
         <v>88</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2004,7 +2004,7 @@
         <v>89</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2015,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2103,7 +2103,7 @@
         <v>98</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2114,7 +2114,7 @@
         <v>99</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2125,7 +2125,7 @@
         <v>100</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2136,7 +2136,7 @@
         <v>101</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2147,7 +2147,7 @@
         <v>102</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>103</v>
       </c>
       <c r="C103">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2169,7 +2169,7 @@
         <v>104</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>105</v>
       </c>
       <c r="C105">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2202,7 +2202,7 @@
         <v>107</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2213,7 +2213,7 @@
         <v>108</v>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2224,7 +2224,7 @@
         <v>109</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>110</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2246,7 +2246,7 @@
         <v>111</v>
       </c>
       <c r="C111">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2257,7 +2257,7 @@
         <v>112</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="C113">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2279,7 +2279,7 @@
         <v>114</v>
       </c>
       <c r="C114">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2290,7 +2290,7 @@
         <v>115</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>116</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2312,7 +2312,7 @@
         <v>117</v>
       </c>
       <c r="C117">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2323,7 +2323,7 @@
         <v>118</v>
       </c>
       <c r="C118">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2334,7 +2334,7 @@
         <v>119</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2345,7 +2345,7 @@
         <v>120</v>
       </c>
       <c r="C120">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2356,7 +2356,7 @@
         <v>121</v>
       </c>
       <c r="C121">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2389,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2400,7 +2400,7 @@
         <v>125</v>
       </c>
       <c r="C125">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="C127">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2433,7 +2433,7 @@
         <v>128</v>
       </c>
       <c r="C128">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2466,7 +2466,7 @@
         <v>131</v>
       </c>
       <c r="C131">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2477,7 +2477,7 @@
         <v>132</v>
       </c>
       <c r="C132">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2488,7 +2488,7 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2499,7 +2499,7 @@
         <v>134</v>
       </c>
       <c r="C134">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>135</v>
       </c>
       <c r="C135">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2521,7 +2521,7 @@
         <v>136</v>
       </c>
       <c r="C136">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2532,7 +2532,7 @@
         <v>137</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2543,7 +2543,7 @@
         <v>138</v>
       </c>
       <c r="C138">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2554,7 +2554,7 @@
         <v>139</v>
       </c>
       <c r="C139">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2565,7 +2565,7 @@
         <v>140</v>
       </c>
       <c r="C140">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>141</v>
       </c>
       <c r="C141">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2587,7 +2587,7 @@
         <v>142</v>
       </c>
       <c r="C142">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>143</v>
       </c>
       <c r="C143">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2609,7 +2609,7 @@
         <v>144</v>
       </c>
       <c r="C144">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2620,7 +2620,7 @@
         <v>145</v>
       </c>
       <c r="C145">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2631,7 +2631,7 @@
         <v>146</v>
       </c>
       <c r="C146">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2642,7 +2642,7 @@
         <v>147</v>
       </c>
       <c r="C147">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2653,7 +2653,7 @@
         <v>148</v>
       </c>
       <c r="C148">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>149</v>
       </c>
       <c r="C149">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2675,7 +2675,7 @@
         <v>150</v>
       </c>
       <c r="C150">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2686,7 +2686,7 @@
         <v>151</v>
       </c>
       <c r="C151">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2697,7 +2697,7 @@
         <v>152</v>
       </c>
       <c r="C152">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2708,7 +2708,7 @@
         <v>153</v>
       </c>
       <c r="C153">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2719,7 +2719,7 @@
         <v>154</v>
       </c>
       <c r="C154">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2730,7 +2730,7 @@
         <v>155</v>
       </c>
       <c r="C155">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2741,7 +2741,7 @@
         <v>156</v>
       </c>
       <c r="C156">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2752,7 +2752,7 @@
         <v>157</v>
       </c>
       <c r="C157">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2763,7 +2763,7 @@
         <v>158</v>
       </c>
       <c r="C158">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2774,7 +2774,7 @@
         <v>159</v>
       </c>
       <c r="C159">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2785,7 +2785,7 @@
         <v>160</v>
       </c>
       <c r="C160">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2796,7 +2796,7 @@
         <v>161</v>
       </c>
       <c r="C161">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2807,7 +2807,7 @@
         <v>162</v>
       </c>
       <c r="C162">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2818,7 +2818,7 @@
         <v>163</v>
       </c>
       <c r="C163">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2829,7 +2829,7 @@
         <v>164</v>
       </c>
       <c r="C164">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2840,7 +2840,7 @@
         <v>165</v>
       </c>
       <c r="C165">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>166</v>
       </c>
       <c r="C166">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2862,7 +2862,7 @@
         <v>167</v>
       </c>
       <c r="C167">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2873,7 +2873,7 @@
         <v>168</v>
       </c>
       <c r="C168">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2884,7 +2884,7 @@
         <v>169</v>
       </c>
       <c r="C169">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2895,7 +2895,7 @@
         <v>170</v>
       </c>
       <c r="C170">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2906,7 +2906,7 @@
         <v>171</v>
       </c>
       <c r="C171">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2917,7 +2917,7 @@
         <v>172</v>
       </c>
       <c r="C172">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2928,7 +2928,7 @@
         <v>173</v>
       </c>
       <c r="C173">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2939,7 +2939,7 @@
         <v>174</v>
       </c>
       <c r="C174">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2950,7 +2950,7 @@
         <v>175</v>
       </c>
       <c r="C175">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2961,7 +2961,7 @@
         <v>176</v>
       </c>
       <c r="C176">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2972,7 +2972,7 @@
         <v>177</v>
       </c>
       <c r="C177">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>178</v>
       </c>
       <c r="C178">
-        <v>36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2994,7 +2994,7 @@
         <v>179</v>
       </c>
       <c r="C179">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3005,7 +3005,7 @@
         <v>180</v>
       </c>
       <c r="C180">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3016,7 +3016,7 @@
         <v>181</v>
       </c>
       <c r="C181">
-        <v>63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3027,7 +3027,7 @@
         <v>182</v>
       </c>
       <c r="C182">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3038,7 +3038,7 @@
         <v>183</v>
       </c>
       <c r="C183">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3049,7 +3049,7 @@
         <v>184</v>
       </c>
       <c r="C184">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3060,7 +3060,7 @@
         <v>185</v>
       </c>
       <c r="C185">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3071,7 +3071,7 @@
         <v>186</v>
       </c>
       <c r="C186">
-        <v>36</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>187</v>
       </c>
       <c r="C187">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3093,7 +3093,7 @@
         <v>188</v>
       </c>
       <c r="C188">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3104,7 +3104,7 @@
         <v>189</v>
       </c>
       <c r="C189">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3115,7 +3115,7 @@
         <v>190</v>
       </c>
       <c r="C190">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3126,7 +3126,7 @@
         <v>191</v>
       </c>
       <c r="C191">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>192</v>
       </c>
       <c r="C192">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3148,7 +3148,7 @@
         <v>193</v>
       </c>
       <c r="C193">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>194</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3170,7 +3170,7 @@
         <v>195</v>
       </c>
       <c r="C195">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3181,7 +3181,7 @@
         <v>196</v>
       </c>
       <c r="C196">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3192,7 +3192,7 @@
         <v>197</v>
       </c>
       <c r="C197">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3203,7 +3203,7 @@
         <v>198</v>
       </c>
       <c r="C198">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>199</v>
       </c>
       <c r="C199">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3225,7 +3225,7 @@
         <v>200</v>
       </c>
       <c r="C200">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3236,7 +3236,7 @@
         <v>201</v>
       </c>
       <c r="C201">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3247,7 +3247,7 @@
         <v>202</v>
       </c>
       <c r="C202">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3258,7 +3258,7 @@
         <v>203</v>
       </c>
       <c r="C203">
-        <v>14</v>
+        <v>129</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>204</v>
       </c>
       <c r="C204">
-        <v>31</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3280,7 +3280,7 @@
         <v>205</v>
       </c>
       <c r="C205">
-        <v>17</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3324,7 +3324,7 @@
         <v>209</v>
       </c>
       <c r="C209">
-        <v>341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3">
